--- a/biology/Zoologie/Damier_de_Harris/Damier_de_Harris.xlsx
+++ b/biology/Zoologie/Damier_de_Harris/Damier_de_Harris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chlosyne harrissi
 Le Damier de Harris (Chlosyne harrisii) est une espèce d'insectes lépidoptères de la famille des Nymphalidae de la sous-famille des Nymphalinae et du genre Chlosyne.
@@ -512,15 +524,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Chlosyne harrisii a été nommée par Scudder en 1863.
-Synonymes : Melitaea harrisii Scudder, 1863 ; Cinclidia harrisii ; Dyar, 1903[1].
-Sous-espèces
-Chlosyne harrisii hanhami (Fletcher, 1904);
-Chlosyne harrisii liggetti Avinoff, 1930[1].
-Noms vernaculaires
-Le Damier de Harris se nomme en anglais Harris' Checkerspot et la sous-espèce Chlosyne harrisii hanhami Hanham's Crescent[1].
+Synonymes : Melitaea harrisii Scudder, 1863 ; Cinclidia harrisii ; Dyar, 1903.
 </t>
         </is>
       </c>
@@ -546,16 +555,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le Damier de Harris est un papillon orange et noir de taille moyenne du groupe des damiers. Son envergure varie entre 30 et 51 mm. Le dessus présente aux antérieures une bande marginale noire, une ligne de grands damier orange, puis quelques petits damiers orange et une petite partie basale noire, alors qu'aux postérieures, font suite à la bande marginale noire deux bandes de damiers orange puis une partie basale foncée.
-Le revers des antérieures est orange bordé de chevrons blancs alors que les postérieures sont blanches à damiers orange[2],[3].
-Chenille
-La chenille est orange, ornée d'une bande noire sur le dos et d'épines ramifiées noires[2].
-</t>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Chlosyne harrisii hanhami (Fletcher, 1904);
+Chlosyne harrisii liggetti Avinoff, 1930.</t>
         </is>
       </c>
     </row>
@@ -580,16 +592,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Période de vol et hivernation
-L'imago vole en juin juillet en une seule génération[4].
-Le Damier de Harris hiverne au stade de chenille[3].
-Plantes hôtes
-La plante hôte de la chenille est Aster umbellatus[2],[4].
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Damier de Harris se nomme en anglais Harris' Checkerspot et la sous-espèce Chlosyne harrisii hanhami Hanham's Crescent.
 </t>
         </is>
       </c>
@@ -615,16 +629,234 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Damier de Harris est un papillon orange et noir de taille moyenne du groupe des damiers. Son envergure varie entre 30 et 51 mm. Le dessus présente aux antérieures une bande marginale noire, une ligne de grands damier orange, puis quelques petits damiers orange et une petite partie basale noire, alors qu'aux postérieures, font suite à la bande marginale noire deux bandes de damiers orange puis une partie basale foncée.
+Le revers des antérieures est orange bordé de chevrons blancs alors que les postérieures sont blanches à damiers orange,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Damier_de_Harris</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Damier_de_Harris</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Chenille</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chenille est orange, ornée d'une bande noire sur le dos et d'épines ramifiées noires.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Damier_de_Harris</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Damier_de_Harris</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'imago vole en juin juillet en une seule génération.
+Le Damier de Harris hiverne au stade de chenille.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Damier_de_Harris</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Damier_de_Harris</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plante hôte de la chenille est Aster umbellatus,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Damier_de_Harris</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Damier_de_Harris</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est présent dans le nord-est de l'Amérique du Nord, au Minabota dans le sud-est du Canada et aux États-Unis dans les états limitrophes du Canada, du Dakota du Nord à la Pennsylvanie[1],[3].
-Biotope
-Il réside dans les prairies humides où pousse l’Aster umbellatus la plante hôte de sa chenille[2].
-Protection
-Pas de statut de protection particulier[3].
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est présent dans le nord-est de l'Amérique du Nord, au Minabota dans le sud-est du Canada et aux États-Unis dans les états limitrophes du Canada, du Dakota du Nord à la Pennsylvanie,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Damier_de_Harris</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Damier_de_Harris</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans les prairies humides où pousse l’Aster umbellatus la plante hôte de sa chenille.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Damier_de_Harris</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Damier_de_Harris</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
